--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="南京云创大数据" displayName="南京云创大数据" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="明略科技" displayName="明略科技" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="慧咨环球" displayName="慧咨环球" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="创维南京分公司" displayName="创维南京分公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="慧咨环球" displayName="慧咨环球" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="百家云" displayName="百家云" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="创维南京分公司" displayName="创维南京分公司" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="新视云" displayName="新视云" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="百家云" displayName="百家云" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="华为" displayName="华为" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="新视云" displayName="新视云" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="满帮" displayName="满帮" ref="A72:M74" headerRowCount="1">
-  <autoFilter ref="A72:M74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="华为" displayName="华为" ref="A72:M73" headerRowCount="1">
+  <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="硅基智能" displayName="硅基智能" ref="A77:M78" headerRowCount="1">
-  <autoFilter ref="A77:M78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="满帮" displayName="满帮" ref="A76:M78" headerRowCount="1">
+  <autoFilter ref="A76:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="中易智能" displayName="中易智能" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="南京云创大数据" displayName="南京云创大数据" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A81:M82" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="硅基智能" displayName="硅基智能" ref="A81:M82" headerRowCount="1">
   <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="零字节" displayName="零字节" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="零字节" displayName="零字节" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -454,8 +454,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A93:M94" headerRowCount="1">
+  <autoFilter ref="A93:M94"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="浩鲸科技" displayName="浩鲸科技" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="中易智能" displayName="中易智能" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="浩鲸科技" displayName="浩鲸科技" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,8 +587,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="安元科技" displayName="安元科技" ref="A31:M33" headerRowCount="1">
-  <autoFilter ref="A31:M33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A31:M32" headerRowCount="1">
+  <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -587,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A36:M37" headerRowCount="1">
-  <autoFilter ref="A36:M37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="安元科技" displayName="安元科技" ref="A35:M37" headerRowCount="1">
+  <autoFilter ref="A35:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -897,7 +919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,14 +945,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1004,81 +1026,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>具体不清楚，但有。</t>
-        </is>
-      </c>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1152,32 +1166,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1187,46 +1201,46 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1300,81 +1314,81 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -1448,62 +1462,62 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1515,14 +1529,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -1596,81 +1610,81 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1763,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1759,47 +1773,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1811,14 +1825,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1911,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1907,47 +1921,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1959,14 +1973,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2040,17 +2054,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2060,264 +2074,276 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -2389,79 +2415,71 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -2535,27 +2553,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2565,34 +2583,30 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -2602,14 +2616,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -2683,81 +2697,81 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -2831,62 +2845,62 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>内推vx: Just1n</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -2898,14 +2912,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -2979,37 +2993,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3019,37 +3033,41 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3121,43 +3139,59 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3170,14 +3204,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -3250,54 +3284,42 @@
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3310,14 +3332,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -3390,70 +3412,74 @@
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -3525,218 +3551,218 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3746,49 +3772,49 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3888,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3882,39 +3908,31 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
@@ -3925,14 +3943,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4004,15 +4022,19 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4022,61 +4044,57 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4149,41 +4167,185 @@
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -4200,8 +4362,8 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A42:B42"/>
@@ -4220,17 +4382,19 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="22">
+  <tableParts count="23">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
@@ -4253,6 +4417,7 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -1069,7 +1069,11 @@
           <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15天，按入职时间比例。</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>刷工牌打卡</t>

--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="明略科技" displayName="明略科技" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="平安科技" displayName="平安科技" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A40:M41" headerRowCount="1">
-  <autoFilter ref="A40:M41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="安元科技" displayName="安元科技" ref="A39:M41" headerRowCount="1">
+  <autoFilter ref="A39:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="慧咨环球" displayName="慧咨环球" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="创维南京分公司" displayName="创维南京分公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="慧咨环球" displayName="慧咨环球" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="百家云" displayName="百家云" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="创维南京分公司" displayName="创维南京分公司" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="新视云" displayName="新视云" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="百家云" displayName="百家云" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="华为" displayName="华为" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="新视云" displayName="新视云" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="满帮" displayName="满帮" ref="A76:M78" headerRowCount="1">
-  <autoFilter ref="A76:M78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="华为" displayName="华为" ref="A76:M77" headerRowCount="1">
+  <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="南京云创大数据" displayName="南京云创大数据" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="明略科技" displayName="明略科技" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="硅基智能" displayName="硅基智能" ref="A81:M82" headerRowCount="1">
-  <autoFilter ref="A81:M82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="满帮" displayName="满帮" ref="A80:M82" headerRowCount="1">
+  <autoFilter ref="A80:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="硅基智能" displayName="硅基智能" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="零字节" displayName="零字节" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="零字节" displayName="零字节" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -476,8 +476,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A97:M98" headerRowCount="1">
+  <autoFilter ref="A97:M98"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="中易智能" displayName="中易智能" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="南京云创大数据" displayName="南京云创大数据" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="浩鲸科技" displayName="浩鲸科技" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="中易智能" displayName="中易智能" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="浩鲸科技" displayName="浩鲸科技" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A31:M32" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A31:M32" headerRowCount="1">
   <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="安元科技" displayName="安元科技" ref="A35:M37" headerRowCount="1">
-  <autoFilter ref="A35:M37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A35:M36" headerRowCount="1">
+  <autoFilter ref="A35:M36"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -914,12 +936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,14 +967,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -1026,17 +1048,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1046,57 +1068,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1170,81 +1192,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1318,32 +1336,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1353,46 +1371,46 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1466,81 +1484,81 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -1614,62 +1632,62 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1681,14 +1699,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -1762,81 +1780,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1933,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1925,47 +1943,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1977,14 +1995,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2081,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2073,47 +2091,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2125,14 +2143,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2206,17 +2224,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2226,264 +2244,276 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -2555,79 +2585,71 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -2701,27 +2723,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2731,34 +2753,30 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -2768,14 +2786,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -2849,81 +2867,81 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -2997,62 +3015,62 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>内推vx: Just1n</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3064,14 +3082,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -3145,37 +3163,37 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3185,37 +3203,41 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3287,43 +3309,59 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3336,14 +3374,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -3416,54 +3454,42 @@
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -3476,14 +3502,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -3556,70 +3582,74 @@
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -3691,218 +3721,218 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3912,49 +3942,49 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4028,17 +4058,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4048,39 +4078,31 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
@@ -4091,14 +4113,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4170,15 +4192,19 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4188,61 +4214,57 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4315,41 +4337,185 @@
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -4368,8 +4534,8 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A46:B46"/>
@@ -4388,40 +4554,43 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="23">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+  <tableParts count="24">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="平安科技" displayName="平安科技" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="安元科技" displayName="安元科技" ref="A39:M41" headerRowCount="1">
-  <autoFilter ref="A39:M41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A39:M40" headerRowCount="1">
+  <autoFilter ref="A39:M40"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -169,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A44:M45" headerRowCount="1">
-  <autoFilter ref="A44:M45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="安元科技" displayName="安元科技" ref="A43:M45" headerRowCount="1">
+  <autoFilter ref="A43:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="慧咨环球" displayName="慧咨环球" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="创维南京分公司" displayName="创维南京分公司" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="慧咨环球" displayName="慧咨环球" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="百家云" displayName="百家云" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="创维南京分公司" displayName="创维南京分公司" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="新视云" displayName="新视云" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="百家云" displayName="百家云" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="华为" displayName="华为" ref="A76:M77" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="新视云" displayName="新视云" ref="A76:M77" headerRowCount="1">
   <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="明略科技" displayName="明略科技" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="平安科技" displayName="平安科技" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="满帮" displayName="满帮" ref="A80:M82" headerRowCount="1">
-  <autoFilter ref="A80:M82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="华为" displayName="华为" ref="A80:M81" headerRowCount="1">
+  <autoFilter ref="A80:M81"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -411,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="硅基智能" displayName="硅基智能" ref="A85:M86" headerRowCount="1">
-  <autoFilter ref="A85:M86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="满帮" displayName="满帮" ref="A84:M86" headerRowCount="1">
+  <autoFilter ref="A84:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="硅基智能" displayName="硅基智能" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="零字节" displayName="零字节" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="零字节" displayName="零字节" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -498,8 +498,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A101:M102" headerRowCount="1">
+  <autoFilter ref="A101:M102"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="南京云创大数据" displayName="南京云创大数据" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="明略科技" displayName="明略科技" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="中易智能" displayName="中易智能" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="南京云创大数据" displayName="南京云创大数据" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="浩鲸科技" displayName="浩鲸科技" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="中易智能" displayName="中易智能" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="浩鲸科技" displayName="浩鲸科技" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A31:M32" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A31:M32" headerRowCount="1">
   <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A35:M36" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A35:M36" headerRowCount="1">
   <autoFilter ref="A35:M36"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -941,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,14 +989,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -1048,77 +1070,77 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -1192,17 +1214,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1212,57 +1234,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1336,81 +1358,77 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1484,32 +1502,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1519,46 +1537,46 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1632,81 +1650,81 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -1780,62 +1798,62 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1847,14 +1865,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -1928,81 +1946,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2099,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2091,47 +2109,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2143,14 +2161,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2247,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2239,47 +2257,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2291,14 +2309,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2372,17 +2390,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2392,264 +2410,276 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -2721,79 +2751,71 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -2867,27 +2889,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2897,34 +2919,30 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -2934,14 +2952,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -3015,81 +3033,81 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -3163,62 +3181,62 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>内推vx: Just1n</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3230,14 +3248,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -3311,37 +3329,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3351,37 +3369,41 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3453,43 +3475,59 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -3502,14 +3540,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -3582,54 +3620,42 @@
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -3642,14 +3668,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -3722,70 +3748,74 @@
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -3857,218 +3887,218 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4078,49 +4108,49 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4194,17 +4224,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4214,39 +4244,31 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
@@ -4257,14 +4279,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4336,15 +4358,19 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4354,61 +4380,57 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4481,41 +4503,185 @@
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -4536,8 +4702,8 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:B50"/>
@@ -4556,17 +4722,19 @@
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="24">
+  <tableParts count="25">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4591,6 +4759,7 @@
     <tablePart r:id="rId22"/>
     <tablePart r:id="rId23"/>
     <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -3384,7 +3384,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>内推vx: Just1n</t>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">

--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A39:M40" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A39:M40" headerRowCount="1">
   <autoFilter ref="A39:M40"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="安元科技" displayName="安元科技" ref="A43:M45" headerRowCount="1">
-  <autoFilter ref="A43:M45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A43:M44" headerRowCount="1">
+  <autoFilter ref="A43:M44"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -191,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A48:M49" headerRowCount="1">
-  <autoFilter ref="A48:M49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="安元科技" displayName="安元科技" ref="A47:M49" headerRowCount="1">
+  <autoFilter ref="A47:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="慧咨环球" displayName="慧咨环球" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="创维南京分公司" displayName="创维南京分公司" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="慧咨环球" displayName="慧咨环球" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="百家云" displayName="百家云" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="创维南京分公司" displayName="创维南京分公司" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="新视云" displayName="新视云" ref="A76:M77" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="百家云" displayName="百家云" ref="A76:M77" headerRowCount="1">
   <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="平安科技" displayName="平安科技" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="华为" displayName="华为" ref="A80:M81" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="新视云" displayName="新视云" ref="A80:M81" headerRowCount="1">
   <autoFilter ref="A80:M81"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="满帮" displayName="满帮" ref="A84:M86" headerRowCount="1">
-  <autoFilter ref="A84:M86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="华为" displayName="华为" ref="A84:M85" headerRowCount="1">
+  <autoFilter ref="A84:M85"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="硅基智能" displayName="硅基智能" ref="A89:M90" headerRowCount="1">
-  <autoFilter ref="A89:M90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="满帮" displayName="满帮" ref="A88:M90" headerRowCount="1">
+  <autoFilter ref="A88:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="硅基智能" displayName="硅基智能" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="零字节" displayName="零字节" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A101:M102" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="零字节" displayName="零字节" ref="A101:M102" headerRowCount="1">
   <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -520,8 +520,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A105:M106" headerRowCount="1">
+  <autoFilter ref="A105:M106"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="明略科技" displayName="明略科技" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="平安科技" displayName="平安科技" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="南京云创大数据" displayName="南京云创大数据" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="明略科技" displayName="明略科技" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="中易智能" displayName="中易智能" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="南京云创大数据" displayName="南京云创大数据" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="浩鲸科技" displayName="浩鲸科技" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="中易智能" displayName="中易智能" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="浩鲸科技" displayName="浩鲸科技" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A31:M32" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A31:M32" headerRowCount="1">
   <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +675,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A35:M36" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A35:M36" headerRowCount="1">
   <autoFilter ref="A35:M36"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -963,7 +985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,14 +1011,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -1070,27 +1092,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1100,30 +1122,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -1133,14 +1159,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -1214,77 +1240,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1384,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1378,57 +1404,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1502,81 +1528,77 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1650,32 +1672,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1685,46 +1707,46 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1798,81 +1820,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -1946,62 +1968,62 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2013,14 +2035,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -2094,81 +2116,81 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2269,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2257,47 +2279,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2309,14 +2331,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2417,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2405,47 +2427,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2457,14 +2479,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2538,17 +2560,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2558,264 +2580,276 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -2887,79 +2921,71 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -3033,27 +3059,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3063,34 +3089,30 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -3100,14 +3122,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -3181,81 +3203,81 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -3329,62 +3351,62 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3396,14 +3418,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -3477,37 +3499,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3517,37 +3539,41 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3619,43 +3645,59 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -3668,14 +3710,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -3748,54 +3790,42 @@
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -3808,14 +3838,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -3888,70 +3918,74 @@
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4023,218 +4057,218 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4244,49 +4278,49 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4360,17 +4394,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4380,39 +4414,31 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
@@ -4423,14 +4449,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4502,15 +4528,19 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4520,61 +4550,57 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4647,41 +4673,185 @@
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -4704,8 +4874,8 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A54:B54"/>
@@ -4724,17 +4894,19 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A86:B86"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="25">
+  <tableParts count="26">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4760,6 +4932,7 @@
     <tablePart r:id="rId23"/>
     <tablePart r:id="rId24"/>
     <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A39:M40" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A39:M40" headerRowCount="1">
   <autoFilter ref="A39:M40"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A43:M44" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A43:M44" headerRowCount="1">
   <autoFilter ref="A43:M44"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="安元科技" displayName="安元科技" ref="A47:M49" headerRowCount="1">
-  <autoFilter ref="A47:M49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A47:M48" headerRowCount="1">
+  <autoFilter ref="A47:M48"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A52:M53" headerRowCount="1">
-  <autoFilter ref="A52:M53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="安元科技" displayName="安元科技" ref="A51:M53" headerRowCount="1">
+  <autoFilter ref="A51:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="慧咨环球" displayName="慧咨环球" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="创维南京分公司" displayName="创维南京分公司" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="慧咨环球" displayName="慧咨环球" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="百家云" displayName="百家云" ref="A76:M77" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="创维南京分公司" displayName="创维南京分公司" ref="A76:M77" headerRowCount="1">
   <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="新视云" displayName="新视云" ref="A80:M81" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="百家云" displayName="百家云" ref="A80:M81" headerRowCount="1">
   <autoFilter ref="A80:M81"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="华为" displayName="华为" ref="A84:M85" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="新视云" displayName="新视云" ref="A84:M85" headerRowCount="1">
   <autoFilter ref="A84:M85"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="满帮" displayName="满帮" ref="A88:M90" headerRowCount="1">
-  <autoFilter ref="A88:M90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="华为" displayName="华为" ref="A88:M89" headerRowCount="1">
+  <autoFilter ref="A88:M89"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -455,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="硅基智能" displayName="硅基智能" ref="A93:M94" headerRowCount="1">
-  <autoFilter ref="A93:M94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="满帮" displayName="满帮" ref="A92:M94" headerRowCount="1">
+  <autoFilter ref="A92:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="硅基智能" displayName="硅基智能" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="零字节" displayName="零字节" ref="A101:M102" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A101:M102" headerRowCount="1">
   <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A105:M106" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="零字节" displayName="零字节" ref="A105:M106" headerRowCount="1">
   <autoFilter ref="A105:M106"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -542,8 +542,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A109:M110" headerRowCount="1">
+  <autoFilter ref="A109:M110"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="平安科技" displayName="平安科技" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="明略科技" displayName="明略科技" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="平安科技" displayName="平安科技" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="南京云创大数据" displayName="南京云创大数据" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="明略科技" displayName="明略科技" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="中易智能" displayName="中易智能" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="南京云创大数据" displayName="南京云创大数据" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="浩鲸科技" displayName="浩鲸科技" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="中易智能" displayName="中易智能" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +675,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A31:M32" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="浩鲸科技" displayName="浩鲸科技" ref="A31:M32" headerRowCount="1">
   <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -675,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A35:M36" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A35:M36" headerRowCount="1">
   <autoFilter ref="A35:M36"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -985,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,14 +1033,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -1092,81 +1114,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1262,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1250,17 +1272,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1270,30 +1292,34 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -1303,14 +1329,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -1384,77 +1410,77 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1554,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1548,57 +1574,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1672,81 +1698,77 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1820,32 +1842,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1855,46 +1877,46 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1968,81 +1990,81 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -2116,62 +2138,62 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2183,14 +2205,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -2264,81 +2286,81 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2439,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2427,47 +2449,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2479,14 +2501,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2575,47 +2597,47 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2627,14 +2649,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2730,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2728,264 +2750,276 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -3057,79 +3091,71 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -3203,27 +3229,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3233,34 +3259,30 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -3270,14 +3292,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -3351,81 +3373,81 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -3499,62 +3521,62 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -3566,14 +3588,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -3647,37 +3669,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3687,37 +3709,41 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3789,43 +3815,59 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -3838,14 +3880,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -3918,54 +3960,42 @@
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -3978,14 +4008,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4058,70 +4088,74 @@
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4193,218 +4227,218 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4414,49 +4448,49 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4530,17 +4564,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4550,39 +4584,31 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
@@ -4593,14 +4619,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4672,15 +4698,19 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4690,61 +4720,57 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4817,41 +4843,185 @@
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -4876,8 +5046,8 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -4896,17 +5066,19 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A90:B90"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="26">
+  <tableParts count="27">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4933,6 +5105,7 @@
     <tablePart r:id="rId24"/>
     <tablePart r:id="rId25"/>
     <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A39:M40" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A39:M40" headerRowCount="1">
   <autoFilter ref="A39:M40"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A43:M44" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A43:M44" headerRowCount="1">
   <autoFilter ref="A43:M44"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A47:M48" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A47:M48" headerRowCount="1">
   <autoFilter ref="A47:M48"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="安元科技" displayName="安元科技" ref="A51:M53" headerRowCount="1">
-  <autoFilter ref="A51:M53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A51:M52" headerRowCount="1">
+  <autoFilter ref="A51:M52"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -235,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A56:M57" headerRowCount="1">
-  <autoFilter ref="A56:M57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="安元科技" displayName="安元科技" ref="A55:M57" headerRowCount="1">
+  <autoFilter ref="A55:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="慧咨环球" displayName="慧咨环球" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="创维南京分公司" displayName="创维南京分公司" ref="A76:M77" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="慧咨环球" displayName="慧咨环球" ref="A76:M77" headerRowCount="1">
   <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="百家云" displayName="百家云" ref="A80:M81" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="创维南京分公司" displayName="创维南京分公司" ref="A80:M81" headerRowCount="1">
   <autoFilter ref="A80:M81"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="新视云" displayName="新视云" ref="A84:M85" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="百家云" displayName="百家云" ref="A84:M85" headerRowCount="1">
   <autoFilter ref="A84:M85"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="华为" displayName="华为" ref="A88:M89" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="新视云" displayName="新视云" ref="A88:M89" headerRowCount="1">
   <autoFilter ref="A88:M89"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="满帮" displayName="满帮" ref="A92:M94" headerRowCount="1">
-  <autoFilter ref="A92:M94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="华为" displayName="华为" ref="A92:M93" headerRowCount="1">
+  <autoFilter ref="A92:M93"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -477,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="硅基智能" displayName="硅基智能" ref="A97:M98" headerRowCount="1">
-  <autoFilter ref="A97:M98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="满帮" displayName="满帮" ref="A96:M98" headerRowCount="1">
+  <autoFilter ref="A96:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A101:M102" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="硅基智能" displayName="硅基智能" ref="A101:M102" headerRowCount="1">
   <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="零字节" displayName="零字节" ref="A105:M106" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A105:M106" headerRowCount="1">
   <autoFilter ref="A105:M106"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A109:M110" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="零字节" displayName="零字节" ref="A109:M110" headerRowCount="1">
   <autoFilter ref="A109:M110"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -564,8 +564,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A113:M114" headerRowCount="1">
+  <autoFilter ref="A113:M114"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="平安科技" displayName="平安科技" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="明略科技" displayName="明略科技" ref="A19:M20" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="平安科技" displayName="平安科技" ref="A19:M20" headerRowCount="1">
   <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="南京云创大数据" displayName="南京云创大数据" ref="A23:M24" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="明略科技" displayName="明略科技" ref="A23:M24" headerRowCount="1">
   <autoFilter ref="A23:M24"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +675,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="中易智能" displayName="中易智能" ref="A27:M28" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="南京云创大数据" displayName="南京云创大数据" ref="A27:M28" headerRowCount="1">
   <autoFilter ref="A27:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -675,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="浩鲸科技" displayName="浩鲸科技" ref="A31:M32" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="中易智能" displayName="中易智能" ref="A31:M32" headerRowCount="1">
   <autoFilter ref="A31:M32"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -697,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A35:M36" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="浩鲸科技" displayName="浩鲸科技" ref="A35:M36" headerRowCount="1">
   <autoFilter ref="A35:M36"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1007,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,14 +1055,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -1114,37 +1136,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1154,41 +1176,41 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -1262,81 +1284,81 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1432,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1420,17 +1442,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1440,30 +1462,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -1473,14 +1499,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -1554,77 +1580,77 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -1698,17 +1724,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1718,57 +1744,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -1842,81 +1868,77 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -1990,32 +2012,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2025,46 +2047,46 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2138,81 +2160,81 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -2286,62 +2308,62 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2353,14 +2375,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -2434,81 +2456,81 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2609,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2597,47 +2619,47 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2649,14 +2671,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2757,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2745,47 +2767,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -2797,14 +2819,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2878,17 +2900,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2898,264 +2920,276 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -3227,79 +3261,71 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -3373,27 +3399,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3403,34 +3429,30 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>2022-01-26</t>
@@ -3440,14 +3462,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -3521,81 +3543,81 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -3669,62 +3691,62 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -3736,14 +3758,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -3817,37 +3839,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3857,37 +3879,41 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -3959,43 +3985,59 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -4008,14 +4050,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -4088,54 +4130,42 @@
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -4148,14 +4178,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4228,70 +4258,74 @@
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4363,218 +4397,218 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4584,49 +4618,49 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4700,17 +4734,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4720,39 +4754,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
@@ -4763,14 +4789,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -4842,15 +4868,19 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4860,61 +4890,57 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -4987,41 +5013,185 @@
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -5048,8 +5218,8 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A62:B62"/>
@@ -5068,17 +5238,19 @@
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="27">
+  <tableParts count="28">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5106,6 +5278,7 @@
     <tablePart r:id="rId25"/>
     <tablePart r:id="rId26"/>
     <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A3:M4" headerRowCount="1">
-  <autoFilter ref="A3:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A3:M5" headerRowCount="1">
+  <autoFilter ref="A3:M5"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A39:M40" headerRowCount="1">
-  <autoFilter ref="A39:M40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="浩鲸科技" displayName="浩鲸科技" ref="A40:M41" headerRowCount="1">
+  <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -169,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A43:M44" headerRowCount="1">
-  <autoFilter ref="A43:M44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A44:M45" headerRowCount="1">
+  <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -191,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A47:M48" headerRowCount="1">
-  <autoFilter ref="A47:M48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A48:M49" headerRowCount="1">
+  <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A51:M52" headerRowCount="1">
-  <autoFilter ref="A51:M52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A52:M53" headerRowCount="1">
+  <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -235,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="安元科技" displayName="安元科技" ref="A55:M57" headerRowCount="1">
-  <autoFilter ref="A55:M57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A56:M57" headerRowCount="1">
+  <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -257,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A60:M61" headerRowCount="1">
-  <autoFilter ref="A60:M61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="安元科技" displayName="安元科技" ref="A60:M62" headerRowCount="1">
+  <autoFilter ref="A60:M62"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A64:M65" headerRowCount="1">
-  <autoFilter ref="A64:M65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A65:M66" headerRowCount="1">
+  <autoFilter ref="A65:M66"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -301,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A68:M69" headerRowCount="1">
-  <autoFilter ref="A68:M69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A69:M70" headerRowCount="1">
+  <autoFilter ref="A69:M70"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -323,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A72:M73" headerRowCount="1">
-  <autoFilter ref="A72:M73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A73:M74" headerRowCount="1">
+  <autoFilter ref="A73:M74"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="慧咨环球" displayName="慧咨环球" ref="A76:M77" headerRowCount="1">
-  <autoFilter ref="A76:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="慧咨环球" displayName="慧咨环球" ref="A77:M78" headerRowCount="1">
+  <autoFilter ref="A77:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A7:M8" headerRowCount="1">
-  <autoFilter ref="A7:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A8:M9" headerRowCount="1">
+  <autoFilter ref="A8:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -389,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="创维南京分公司" displayName="创维南京分公司" ref="A80:M81" headerRowCount="1">
-  <autoFilter ref="A80:M81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="创维南京分公司" displayName="创维南京分公司" ref="A81:M82" headerRowCount="1">
+  <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -411,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="百家云" displayName="百家云" ref="A84:M85" headerRowCount="1">
-  <autoFilter ref="A84:M85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="百家云" displayName="百家云" ref="A85:M86" headerRowCount="1">
+  <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="新视云" displayName="新视云" ref="A88:M89" headerRowCount="1">
-  <autoFilter ref="A88:M89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="新视云" displayName="新视云" ref="A89:M90" headerRowCount="1">
+  <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -455,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="华为" displayName="华为" ref="A92:M93" headerRowCount="1">
-  <autoFilter ref="A92:M93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="华为" displayName="华为" ref="A93:M94" headerRowCount="1">
+  <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -477,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="满帮" displayName="满帮" ref="A96:M98" headerRowCount="1">
-  <autoFilter ref="A96:M98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="满帮" displayName="满帮" ref="A97:M99" headerRowCount="1">
+  <autoFilter ref="A97:M99"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -499,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="硅基智能" displayName="硅基智能" ref="A101:M102" headerRowCount="1">
-  <autoFilter ref="A101:M102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="硅基智能" displayName="硅基智能" ref="A102:M103" headerRowCount="1">
+  <autoFilter ref="A102:M103"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -521,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A105:M106" headerRowCount="1">
-  <autoFilter ref="A105:M106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A106:M107" headerRowCount="1">
+  <autoFilter ref="A106:M107"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -543,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="零字节" displayName="零字节" ref="A109:M110" headerRowCount="1">
-  <autoFilter ref="A109:M110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="零字节" displayName="零字节" ref="A110:M111" headerRowCount="1">
+  <autoFilter ref="A110:M111"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -565,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A113:M114" headerRowCount="1">
-  <autoFilter ref="A113:M114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A114:M115" headerRowCount="1">
+  <autoFilter ref="A114:M115"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -587,8 +587,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A11:M12" headerRowCount="1">
-  <autoFilter ref="A11:M12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A12:M13" headerRowCount="1">
+  <autoFilter ref="A12:M13"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -609,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A15:M16" headerRowCount="1">
-  <autoFilter ref="A15:M16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A16:M17" headerRowCount="1">
+  <autoFilter ref="A16:M17"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -631,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="平安科技" displayName="平安科技" ref="A19:M20" headerRowCount="1">
-  <autoFilter ref="A19:M20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A20:M21" headerRowCount="1">
+  <autoFilter ref="A20:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -653,8 +653,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="明略科技" displayName="明略科技" ref="A23:M24" headerRowCount="1">
-  <autoFilter ref="A23:M24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="平安科技" displayName="平安科技" ref="A24:M25" headerRowCount="1">
+  <autoFilter ref="A24:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -675,8 +675,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="南京云创大数据" displayName="南京云创大数据" ref="A27:M28" headerRowCount="1">
-  <autoFilter ref="A27:M28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="明略科技" displayName="明略科技" ref="A28:M29" headerRowCount="1">
+  <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="中易智能" displayName="中易智能" ref="A31:M32" headerRowCount="1">
-  <autoFilter ref="A31:M32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京云创大数据" displayName="南京云创大数据" ref="A32:M33" headerRowCount="1">
+  <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -719,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="浩鲸科技" displayName="浩鲸科技" ref="A35:M36" headerRowCount="1">
-  <autoFilter ref="A35:M36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="中易智能" displayName="中易智能" ref="A36:M37" headerRowCount="1">
+  <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,14 +1055,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1136,62 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1203,1929 +1203,1929 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>研发效能与架构部</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>前端</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1h(表) 1.5h(里)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>全额 8%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>正常绩效水平 2 个月</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>测试开发工程师</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8:30-17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11:30-13:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>工资全额的10%+年底补充年薪5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>固定13薪，额外奖金1个月左右</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12天年假</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>不打卡</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>工具开发部</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>开发工程师</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11:30-12:30(实际1.5h)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>工资全额的12%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>有，按国家规定执行，随时都可以休</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>硬件</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09:00-18:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>双休，平时加班不多，看部门</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>全额的12%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1个月，根据绩效浮动</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6个月, 不打折</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>网吧工位，笔记本+显示器</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>5天，一般会多送些</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>电力信息</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>全额的12%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>看公司情况 一般有</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>平安科技（南京）</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>产品</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8:55-18:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>基数工资全额8%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>过试用期开始有年假，年假比法定要更多</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>营销智能</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>工资10%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>说是3个月，不确信可不可靠</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>半年 不打折</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15天，按入职时间比例。</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>深度学习算法工程师</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8:45-17:45</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>基本不加，但老板有暗示要加。</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6000基数的8%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>具体不清楚，但有。</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>小公司不分部门</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>python开发</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>不加班, 但工作量大。</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>具体基数忘了, 公司交一千多。</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>三个月, 八折。</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>网吧工位</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>无, 所有节假日都少放几天。</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>指纹打卡</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>前端</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>记不清</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>不清楚</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3个月</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>严格打卡，钉钉。</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>南京研发中心二部</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>后端开发工程师</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>9:30-19:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>不强制, 但工作量大。</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7000，比例 12%。</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>根据考核情况</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3个月，9折。</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>根据工作年限, 第一年5天。</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>钉钉</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>后端开发</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11:30-14:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>工资*80%*8%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>一个月左右或者没有一个月</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>氛围不行，不适合长期发展。</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>研发一部</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12:00-13:30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>995（强制每周工时47.5h）</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>基数8%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>根据公司业绩提供</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>试用期3个月，打8折。</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>diy台式机</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>有，根据工龄计算</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>项目组开发周期很紧，任务量偏多</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>前端开发工程师</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3135,42 +3135,42 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折，可谈。</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3182,14 +3182,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
@@ -3261,1930 +3261,1997 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>中间件架构</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9:00-17:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12:00-13:00(实际1.5h)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>看情况，基本到点就走，除非有上线</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>试用期3个月；打8折，可谈。</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>dell台式机</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>有，过年一次性强制休完</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>希音（SHEIN）</t>
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9:00-18:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>124加班，35 正常；大小周</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>基数底薪，比例 8%。</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>一般无。</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3个月8折。</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>网吧工位。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>入职一年后有，多一年加一天</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1h(表) 1.5h(里)</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>正常绩效水平 2 个月</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9:10-18:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>全额 8%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>三个月</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>显示器，不一定有。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>中台</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>一个月平均加班天数3到4天</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>去年只发了半个月</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>三个月，薪资打八折</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>五天年假，按入职日期折算</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>钉钉打卡，每个月五次补卡机会</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>打卡情况</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>其他备注</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>研发中心</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>.NET/Python etc.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>自己安排，满8小时工时就好。</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>自己安排</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>10~20天</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.5H</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Windows 电脑+dell 显示器</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>法定年假</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>弹性打卡</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>地址：雨花台软件谷科创城</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>岗位</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>上班时间</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>午休时长</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>加班情况</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>年终奖</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>试用期</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>工位电脑情况</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>打卡情况</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>其他备注</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
         <is>
           <t>9:00-18:30</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>周 1,2,4 正常加班，不想加班也行</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>6 个月不打折</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>2022-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>地址：雨花台</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>岗位</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>上班时间</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>午休时长</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>加班情况</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>年终奖</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>试用期</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>工位电脑情况</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>打卡情况</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>其他备注</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Java</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>基数 5k，比例 8%</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>固定 13 薪</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>配笔记本+显示器</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>不打卡</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>2022-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>地址：雨花台华为南研所</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>岗位</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>上班时间</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>午休时长</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>加班情况</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>年终奖</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>试用期</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>工位电脑情况</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>打卡情况</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>其他备注</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
         <is>
           <t>9:00</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>12:00-13:40</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>基础工资的 5%</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>配 win 台式机+双屏</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>必须按时打卡</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>2022-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>用户交易中台技术部</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Java</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>9:00-18:30</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>全额8%</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>正常绩效水平1.5个月</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>六个月不打折</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>满三个月才有年假</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>钉钉+闸机刷脸</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>卷，性价比极低，压力大</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Java</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>9:00-18:31</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>不强制， 周五基本不加。</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>全额8%</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>上下半年绩效</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>六个月不打折</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
         <is>
           <t>奋斗日于2022年01月01日取消。</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>2022-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>创新产品事业群</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>创新产品事业群</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>9:00-18:30</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>没事到点走，部门氛围卷</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>不打折</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>网吧工位</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>部门</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>岗位</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>上班时间</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>午休时长</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>加班情况</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>年终奖</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>试用期</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>工位电脑情况</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>年假</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>打卡情况</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>其他备注</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>更新时间</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>部门</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>岗位</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>上班时间</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>午休时长</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>加班情况</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>基数5000，按照绩效或多或少。</t>
+          <t>年终奖</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>试用期</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>工位电脑情况</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>技术部</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>9:00-17:30</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>按需加班</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>基数看个人，比例 5%</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>基数5000，按照绩效或多或少。</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>地址：江苏省南京市建邺区</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>岗位</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>上班时间</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>午休时长</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>加班情况</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>年终奖</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>试用期</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>工位电脑情况</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>打卡情况</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>其他备注</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Go/Rust/JS/TS/产品/运营</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>9:30-18:30</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>1.5h</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>不加班</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>13薪，每年调薪一次。</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>应届生八折，有工作经验的不打折。</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>入职转正就享受年假</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>飞书打卡</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>节日红包、年度旅游（21年三亚一周）</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>2022-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>思杰（Citrix）</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>思杰（Citrix）</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>岗位</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>上班时间</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>午休时长</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>加班情况</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>年终奖</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>试用期</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>工位电脑情况</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>打卡情况</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>其他备注</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>更新时间</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
         <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
@@ -5194,60 +5261,60 @@
   <mergeCells count="56">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A92:B92"/>
     <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A105:B105"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="28">

--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -1258,7 +1258,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">

--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A3:M5" headerRowCount="1">
-  <autoFilter ref="A3:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="中国电子云" displayName="中国电子云" ref="A3:M4" headerRowCount="1">
+  <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="浩鲸科技" displayName="浩鲸科技" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="中易智能" displayName="中易智能" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="浩鲸科技" displayName="浩鲸科技" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="安元科技" displayName="安元科技" ref="A60:M62" headerRowCount="1">
-  <autoFilter ref="A60:M62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A60:M61" headerRowCount="1">
+  <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A65:M66" headerRowCount="1">
-  <autoFilter ref="A65:M66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="安元科技" displayName="安元科技" ref="A64:M66" headerRowCount="1">
+  <autoFilter ref="A64:M66"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A69:M70" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A69:M70" headerRowCount="1">
   <autoFilter ref="A69:M70"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A73:M74" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A73:M74" headerRowCount="1">
   <autoFilter ref="A73:M74"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="慧咨环球" displayName="慧咨环球" ref="A77:M78" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A77:M78" headerRowCount="1">
   <autoFilter ref="A77:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A8:M9" headerRowCount="1">
-  <autoFilter ref="A8:M9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A7:M9" headerRowCount="1">
+  <autoFilter ref="A7:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="创维南京分公司" displayName="创维南京分公司" ref="A81:M82" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="慧咨环球" displayName="慧咨环球" ref="A81:M82" headerRowCount="1">
   <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="百家云" displayName="百家云" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="创维南京分公司" displayName="创维南京分公司" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="新视云" displayName="新视云" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="百家云" displayName="百家云" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="华为" displayName="华为" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="新视云" displayName="新视云" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="满帮" displayName="满帮" ref="A97:M99" headerRowCount="1">
-  <autoFilter ref="A97:M99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="华为" displayName="华为" ref="A97:M98" headerRowCount="1">
+  <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -499,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="硅基智能" displayName="硅基智能" ref="A102:M103" headerRowCount="1">
-  <autoFilter ref="A102:M103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="满帮" displayName="满帮" ref="A101:M103" headerRowCount="1">
+  <autoFilter ref="A101:M103"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A106:M107" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="硅基智能" displayName="硅基智能" ref="A106:M107" headerRowCount="1">
   <autoFilter ref="A106:M107"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="零字节" displayName="零字节" ref="A110:M111" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A110:M111" headerRowCount="1">
   <autoFilter ref="A110:M111"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A114:M115" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="零字节" displayName="零字节" ref="A114:M115" headerRowCount="1">
   <autoFilter ref="A114:M115"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -586,8 +586,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A118:M119" headerRowCount="1">
+  <autoFilter ref="A118:M119"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A12:M13" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A12:M13" headerRowCount="1">
   <autoFilter ref="A12:M13"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A16:M17" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A16:M17" headerRowCount="1">
   <autoFilter ref="A16:M17"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A20:M21" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A20:M21" headerRowCount="1">
   <autoFilter ref="A20:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +675,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="平安科技" displayName="平安科技" ref="A24:M25" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A24:M25" headerRowCount="1">
   <autoFilter ref="A24:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -675,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="明略科技" displayName="明略科技" ref="A28:M29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="平安科技" displayName="平安科技" ref="A28:M29" headerRowCount="1">
   <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -697,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="南京云创大数据" displayName="南京云创大数据" ref="A32:M33" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="明略科技" displayName="明略科技" ref="A32:M33" headerRowCount="1">
   <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -719,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="中易智能" displayName="中易智能" ref="A36:M37" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京云创大数据" displayName="南京云创大数据" ref="A36:M37" headerRowCount="1">
   <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1029,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,14 +1077,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>中国电子云</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：雨花台区凯润大厦</t>
         </is>
       </c>
     </row>
@@ -1136,296 +1158,296 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>研发</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00-20:00+</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>基数全额8%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>正常绩效2个月，C绩效1个月</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6个月，不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>转正后按年限给年假</t>
+          <t>转正后按照有年假</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
+          <t>手机打卡，公司附近500m左右</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1h(表) 1.5h(里)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>全额 8%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>正常绩效水平 2 个月</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -1499,37 +1521,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1539,41 +1561,41 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -1647,81 +1669,81 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1817,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1805,17 +1827,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1825,30 +1847,34 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -1858,14 +1884,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -1939,77 +1965,77 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -2083,17 +2109,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2103,57 +2129,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -2227,81 +2253,77 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2397,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2410,46 +2432,46 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2523,81 +2545,81 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -2671,62 +2693,62 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -2738,14 +2760,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -2819,81 +2841,81 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2994,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2982,47 +3004,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3034,14 +3056,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3142,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3130,47 +3152,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3182,14 +3204,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3263,17 +3285,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3283,264 +3305,276 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -3612,79 +3646,71 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -3758,17 +3784,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3778,61 +3804,57 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -3906,62 +3928,62 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3973,14 +3995,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -4054,37 +4076,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4094,37 +4116,41 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -4196,43 +4222,59 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -4245,14 +4287,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -4325,54 +4367,42 @@
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -4385,14 +4415,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4465,70 +4495,74 @@
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4600,218 +4634,218 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4821,49 +4855,49 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -4937,17 +4971,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4957,39 +4991,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
@@ -5000,14 +5026,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -5079,15 +5105,19 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5097,61 +5127,57 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -5224,45 +5250,189 @@
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="58">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
@@ -5289,8 +5459,8 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A71:B71"/>
@@ -5307,17 +5477,19 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="28">
+  <tableParts count="29">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5346,6 +5518,7 @@
     <tablePart r:id="rId26"/>
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="中易智能" displayName="中易智能" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京云创大数据" displayName="南京云创大数据" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="浩鲸科技" displayName="浩鲸科技" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="中易智能" displayName="中易智能" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="浩鲸科技" displayName="浩鲸科技" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="安元科技" displayName="安元科技" ref="A64:M66" headerRowCount="1">
-  <autoFilter ref="A64:M66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A64:M65" headerRowCount="1">
+  <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -301,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A69:M70" headerRowCount="1">
-  <autoFilter ref="A69:M70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="安元科技" displayName="安元科技" ref="A68:M70" headerRowCount="1">
+  <autoFilter ref="A68:M70"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A73:M74" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A73:M74" headerRowCount="1">
   <autoFilter ref="A73:M74"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A77:M78" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A77:M78" headerRowCount="1">
   <autoFilter ref="A77:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A7:M9" headerRowCount="1">
-  <autoFilter ref="A7:M9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A7:M8" headerRowCount="1">
+  <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="慧咨环球" displayName="慧咨环球" ref="A81:M82" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A81:M82" headerRowCount="1">
   <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="创维南京分公司" displayName="创维南京分公司" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="慧咨环球" displayName="慧咨环球" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="百家云" displayName="百家云" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="创维南京分公司" displayName="创维南京分公司" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="新视云" displayName="新视云" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="百家云" displayName="百家云" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="华为" displayName="华为" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="新视云" displayName="新视云" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="满帮" displayName="满帮" ref="A101:M103" headerRowCount="1">
-  <autoFilter ref="A101:M103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="华为" displayName="华为" ref="A101:M102" headerRowCount="1">
+  <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -521,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="硅基智能" displayName="硅基智能" ref="A106:M107" headerRowCount="1">
-  <autoFilter ref="A106:M107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="满帮" displayName="满帮" ref="A105:M107" headerRowCount="1">
+  <autoFilter ref="A105:M107"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A110:M111" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="硅基智能" displayName="硅基智能" ref="A110:M111" headerRowCount="1">
   <autoFilter ref="A110:M111"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="零字节" displayName="零字节" ref="A114:M115" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A114:M115" headerRowCount="1">
   <autoFilter ref="A114:M115"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A118:M119" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="零字节" displayName="零字节" ref="A118:M119" headerRowCount="1">
   <autoFilter ref="A118:M119"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,8 +609,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A12:M13" headerRowCount="1">
-  <autoFilter ref="A12:M13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A11:M13" headerRowCount="1">
+  <autoFilter ref="A11:M13"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A122:M123" headerRowCount="1">
+  <autoFilter ref="A122:M123"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -631,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A16:M17" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A16:M17" headerRowCount="1">
   <autoFilter ref="A16:M17"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +675,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A20:M21" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A20:M21" headerRowCount="1">
   <autoFilter ref="A20:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -675,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A24:M25" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A24:M25" headerRowCount="1">
   <autoFilter ref="A24:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -697,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="平安科技" displayName="平安科技" ref="A28:M29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A28:M29" headerRowCount="1">
   <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -719,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="明略科技" displayName="明略科技" ref="A32:M33" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="平安科技" displayName="平安科技" ref="A32:M33" headerRowCount="1">
   <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -741,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="南京云创大数据" displayName="南京云创大数据" ref="A36:M37" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="明略科技" displayName="明略科技" ref="A36:M37" headerRowCount="1">
   <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1051,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,14 +1247,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：天隆寺金地威新</t>
         </is>
       </c>
     </row>
@@ -1306,296 +1328,292 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>研发</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00-20:00+</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>基数全额8%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>正常绩效2个月，C绩效1个月</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>转正后按年限给年假</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1h(表) 1.5h(里)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>全额 8%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>正常绩效水平 2 个月</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -1669,37 +1687,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1709,41 +1727,41 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -1817,81 +1835,81 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1983,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1975,17 +1993,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1995,30 +2013,34 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -2028,14 +2050,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -2109,77 +2131,77 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -2253,17 +2275,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2273,57 +2295,57 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -2397,81 +2419,77 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -2545,32 +2563,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2580,46 +2598,46 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2693,81 +2711,81 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -2841,62 +2859,62 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -2908,14 +2926,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -2989,81 +3007,81 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3160,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3152,47 +3170,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3204,14 +3222,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3308,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3300,47 +3318,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3352,14 +3370,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3451,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3453,264 +3471,276 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -3782,79 +3812,71 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -3928,17 +3950,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3948,61 +3970,57 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -4076,62 +4094,62 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -4143,14 +4161,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -4224,37 +4242,37 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4264,37 +4282,41 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -4366,43 +4388,59 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -4415,14 +4453,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -4495,54 +4533,42 @@
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
@@ -4555,14 +4581,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4635,70 +4661,74 @@
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4770,218 +4800,218 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4991,49 +5021,49 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -5107,17 +5137,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5127,39 +5157,31 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
@@ -5170,14 +5192,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -5249,15 +5271,19 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5267,61 +5293,57 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -5394,47 +5416,191 @@
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
@@ -5461,8 +5627,8 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A75:B75"/>
@@ -5479,17 +5645,19 @@
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="29">
+  <tableParts count="30">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5519,6 +5687,7 @@
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
     <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="中国电子云" displayName="中国电子云" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="新康众有限公司（江苏康众汽配）" displayName="新康众有限公司（江苏康众汽配）" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="南京云创大数据" displayName="南京云创大数据" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="明略科技" displayName="明略科技" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="中易智能" displayName="中易智能" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京云创大数据" displayName="南京云创大数据" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="浩鲸科技" displayName="浩鲸科技" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="中易智能" displayName="中易智能" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="浩鲸科技" displayName="浩鲸科技" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="安元科技" displayName="安元科技" ref="A68:M70" headerRowCount="1">
-  <autoFilter ref="A68:M70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A68:M69" headerRowCount="1">
+  <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -323,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A73:M74" headerRowCount="1">
-  <autoFilter ref="A73:M74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="安元科技" displayName="安元科技" ref="A72:M74" headerRowCount="1">
+  <autoFilter ref="A72:M74"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A77:M78" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A77:M78" headerRowCount="1">
   <autoFilter ref="A77:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="中国电子云" displayName="中国电子云" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A81:M82" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A81:M82" headerRowCount="1">
   <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="慧咨环球" displayName="慧咨环球" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="创维南京分公司" displayName="创维南京分公司" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="慧咨环球" displayName="慧咨环球" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="百家云" displayName="百家云" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="创维南京分公司" displayName="创维南京分公司" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="新视云" displayName="新视云" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="百家云" displayName="百家云" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="华为" displayName="华为" ref="A101:M102" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="新视云" displayName="新视云" ref="A101:M102" headerRowCount="1">
   <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="满帮" displayName="满帮" ref="A105:M107" headerRowCount="1">
-  <autoFilter ref="A105:M107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="华为" displayName="华为" ref="A105:M106" headerRowCount="1">
+  <autoFilter ref="A105:M106"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -543,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="硅基智能" displayName="硅基智能" ref="A110:M111" headerRowCount="1">
-  <autoFilter ref="A110:M111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="满帮" displayName="满帮" ref="A109:M111" headerRowCount="1">
+  <autoFilter ref="A109:M111"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A114:M115" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="硅基智能" displayName="硅基智能" ref="A114:M115" headerRowCount="1">
   <autoFilter ref="A114:M115"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="零字节" displayName="零字节" ref="A118:M119" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A118:M119" headerRowCount="1">
   <autoFilter ref="A118:M119"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A11:M13" headerRowCount="1">
-  <autoFilter ref="A11:M13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A11:M12" headerRowCount="1">
+  <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A122:M123" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="零字节" displayName="零字节" ref="A122:M123" headerRowCount="1">
   <autoFilter ref="A122:M123"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -652,9 +652,31 @@
 </table>
 </file>
 
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A126:M127" headerRowCount="1">
+  <autoFilter ref="A126:M127"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A16:M17" headerRowCount="1">
-  <autoFilter ref="A16:M17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A15:M17" headerRowCount="1">
+  <autoFilter ref="A15:M17"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -675,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A20:M21" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A20:M21" headerRowCount="1">
   <autoFilter ref="A20:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -697,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A24:M25" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A24:M25" headerRowCount="1">
   <autoFilter ref="A24:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -719,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A28:M29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A28:M29" headerRowCount="1">
   <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -741,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="平安科技" displayName="平安科技" ref="A32:M33" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A32:M33" headerRowCount="1">
   <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -763,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="明略科技" displayName="明略科技" ref="A36:M37" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="平安科技" displayName="平安科技" ref="A36:M37" headerRowCount="1">
   <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1073,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,14 +1121,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：雨花台区凯润大厦</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -1180,81 +1202,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>转正后按照有年假</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>中国电子云</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：天隆寺金地威新</t>
+          <t>地址：雨花台区凯润大厦</t>
         </is>
       </c>
     </row>
@@ -1328,27 +1350,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1358,47 +1380,51 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>转正后按照有年假</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>手机打卡，公司附近500m左右</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：天隆寺金地威新</t>
         </is>
       </c>
     </row>
@@ -1472,296 +1498,292 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>研发</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00-20:00+</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>基数全额8%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>正常绩效2个月，C绩效1个月</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>转正后按年限给年假</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1h(表) 1.5h(里)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>全额 8%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>正常绩效水平 2 个月</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -1835,37 +1857,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1875,41 +1897,41 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -1983,81 +2005,81 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2153,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2141,17 +2163,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2161,30 +2183,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -2194,14 +2220,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -2275,77 +2301,77 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -2419,17 +2445,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2439,57 +2465,57 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -2563,81 +2589,77 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2733,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2746,46 +2768,46 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -2859,81 +2881,81 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -3007,62 +3029,62 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3074,14 +3096,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -3155,81 +3177,81 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3330,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3318,47 +3340,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3370,14 +3392,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3478,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3466,47 +3488,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3518,14 +3540,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3599,17 +3621,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3619,264 +3641,276 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -3948,79 +3982,71 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -4094,17 +4120,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4114,61 +4140,57 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -4242,62 +4264,62 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4309,14 +4331,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -4390,37 +4412,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4430,37 +4452,41 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -4532,43 +4558,59 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
@@ -4581,14 +4623,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -4661,54 +4703,42 @@
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -4721,14 +4751,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4801,70 +4831,74 @@
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -4936,218 +4970,218 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5157,49 +5191,49 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -5273,17 +5307,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5293,39 +5327,31 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
@@ -5336,14 +5362,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -5415,15 +5441,19 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5433,61 +5463,57 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -5560,49 +5586,193 @@
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="62">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
@@ -5629,8 +5799,8 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A79:B79"/>
@@ -5647,17 +5817,19 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="30">
+  <tableParts count="31">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5688,6 +5860,7 @@
     <tablePart r:id="rId28"/>
     <tablePart r:id="rId29"/>
     <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="新康众有限公司（江苏康众汽配）" displayName="新康众有限公司（江苏康众汽配）" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="紫金山实验室" displayName="紫金山实验室" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="明略科技" displayName="明略科技" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="平安科技" displayName="平安科技" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="南京云创大数据" displayName="南京云创大数据" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="明略科技" displayName="明略科技" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="中易智能" displayName="中易智能" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京云创大数据" displayName="南京云创大数据" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="浩鲸科技" displayName="浩鲸科技" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="中易智能" displayName="中易智能" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="浩鲸科技" displayName="浩鲸科技" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="安元科技" displayName="安元科技" ref="A72:M74" headerRowCount="1">
-  <autoFilter ref="A72:M74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A72:M73" headerRowCount="1">
+  <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A77:M78" headerRowCount="1">
-  <autoFilter ref="A77:M78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="安元科技" displayName="安元科技" ref="A76:M78" headerRowCount="1">
+  <autoFilter ref="A76:M78"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="中国电子云" displayName="中国电子云" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="新康众有限公司（江苏康众汽配）" displayName="新康众有限公司（江苏康众汽配）" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A81:M82" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A81:M82" headerRowCount="1">
   <autoFilter ref="A81:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="慧咨环球" displayName="慧咨环球" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="创维南京分公司" displayName="创维南京分公司" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="慧咨环球" displayName="慧咨环球" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="百家云" displayName="百家云" ref="A97:M98" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="创维南京分公司" displayName="创维南京分公司" ref="A97:M98" headerRowCount="1">
   <autoFilter ref="A97:M98"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="新视云" displayName="新视云" ref="A101:M102" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="百家云" displayName="百家云" ref="A101:M102" headerRowCount="1">
   <autoFilter ref="A101:M102"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="华为" displayName="华为" ref="A105:M106" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="新视云" displayName="新视云" ref="A105:M106" headerRowCount="1">
   <autoFilter ref="A105:M106"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -543,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="满帮" displayName="满帮" ref="A109:M111" headerRowCount="1">
-  <autoFilter ref="A109:M111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="华为" displayName="华为" ref="A109:M110" headerRowCount="1">
+  <autoFilter ref="A109:M110"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -565,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="硅基智能" displayName="硅基智能" ref="A114:M115" headerRowCount="1">
-  <autoFilter ref="A114:M115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="满帮" displayName="满帮" ref="A113:M115" headerRowCount="1">
+  <autoFilter ref="A113:M115"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A118:M119" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="硅基智能" displayName="硅基智能" ref="A118:M119" headerRowCount="1">
   <autoFilter ref="A118:M119"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="中国电子云" displayName="中国电子云" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="零字节" displayName="零字节" ref="A122:M123" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="江苏长江汇科技有限公司" displayName="江苏长江汇科技有限公司" ref="A122:M123" headerRowCount="1">
   <autoFilter ref="A122:M123"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -653,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A126:M127" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="零字节" displayName="零字节" ref="A126:M127" headerRowCount="1">
   <autoFilter ref="A126:M127"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -674,9 +674,31 @@
 </table>
 </file>
 
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="思杰（Citrix）" displayName="思杰（Citrix）" ref="A130:M131" headerRowCount="1">
+  <autoFilter ref="A130:M131"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="部门"/>
+    <tableColumn id="2" name="岗位"/>
+    <tableColumn id="3" name="上班时间"/>
+    <tableColumn id="4" name="午休时长"/>
+    <tableColumn id="5" name="加班情况"/>
+    <tableColumn id="6" name="公积金"/>
+    <tableColumn id="7" name="年终奖"/>
+    <tableColumn id="8" name="试用期"/>
+    <tableColumn id="9" name="工位电脑情况"/>
+    <tableColumn id="10" name="年假"/>
+    <tableColumn id="11" name="打卡情况"/>
+    <tableColumn id="12" name="其他备注"/>
+    <tableColumn id="13" name="更新时间"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A15:M17" headerRowCount="1">
-  <autoFilter ref="A15:M17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A15:M16" headerRowCount="1">
+  <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -697,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A20:M21" headerRowCount="1">
-  <autoFilter ref="A20:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A19:M21" headerRowCount="1">
+  <autoFilter ref="A19:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -719,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A24:M25" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A24:M25" headerRowCount="1">
   <autoFilter ref="A24:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -741,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A28:M29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A28:M29" headerRowCount="1">
   <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -763,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A32:M33" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A32:M33" headerRowCount="1">
   <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -785,7 +807,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="平安科技" displayName="平安科技" ref="A36:M37" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A36:M37" headerRowCount="1">
   <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1095,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,14 +1143,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1224,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1222,42 +1244,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1269,14 +1291,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：雨花台区凯润大厦</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -1350,81 +1372,81 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>转正后按照有年假</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>中国电子云</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：天隆寺金地威新</t>
+          <t>地址：雨花台区凯润大厦</t>
         </is>
       </c>
     </row>
@@ -1498,27 +1520,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1528,47 +1550,51 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>转正后按照有年假</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>手机打卡，公司附近500m左右</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：天隆寺金地威新</t>
         </is>
       </c>
     </row>
@@ -1642,296 +1668,292 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>研发</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:00-20:00+</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>基数全额8%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>正常绩效2个月，C绩效1个月</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>转正后按年限给年假</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1h(表) 1.5h(里)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>全额 8%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>正常绩效水平 2 个月</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -2005,37 +2027,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2045,41 +2067,41 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -2153,81 +2175,81 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2323,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2311,17 +2333,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2331,30 +2353,34 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -2364,14 +2390,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -2445,77 +2471,77 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -2589,17 +2615,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2609,57 +2635,57 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -2733,81 +2759,77 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -2881,32 +2903,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2916,46 +2938,46 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3029,81 +3051,81 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -3177,62 +3199,62 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3244,14 +3266,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -3325,81 +3347,81 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3500,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3488,47 +3510,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3540,14 +3562,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3648,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3636,47 +3658,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -3688,14 +3710,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3769,17 +3791,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3789,264 +3811,276 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -4118,79 +4152,71 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -4264,17 +4290,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4284,61 +4310,57 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -4412,62 +4434,62 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -4479,14 +4501,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>创维南京分公司</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：雨花云密城</t>
+          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
         </is>
       </c>
     </row>
@@ -4560,37 +4582,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>web 后台</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>.NET/Python etc.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>自己安排，满8小时工时就好。</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.5H</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>工资八折的 10%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1 个月工资</t>
+          <t>13薪，每年调薪一次。</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4600,37 +4622,41 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Windows 电脑+dell 显示器</t>
+          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>法定年假</t>
+          <t>10~20天</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>弹性打卡</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+          <t>完全不打卡</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>百家云</t>
+          <t>创维南京分公司</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>地址：雨花台软件谷科创城</t>
+          <t>地址：雨花云密城</t>
         </is>
       </c>
     </row>
@@ -4702,43 +4728,59 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>web 后台</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1.5H</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>周 1,2,4 正常加班，不想加班也行</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>工资八折的 10%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1 个月工资</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6 个月不打折</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>mac 笔记本+小米曲面屏显示器</t>
+          <t>Windows 电脑+dell 显示器</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>年假次年一月发放，每满一年+1 天</t>
+          <t>法定年假</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
+          <t>弹性打卡</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -4751,14 +4793,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>新视云</t>
+          <t>百家云</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>地址：雨花台</t>
+          <t>地址：雨花台软件谷科创城</t>
         </is>
       </c>
     </row>
@@ -4831,54 +4873,42 @@
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>基数 5k，比例 8%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>固定 13 薪</t>
-        </is>
-      </c>
+          <t>周 1,2,4 正常加班，不想加班也行</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
+          <t>6 个月不打折</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>配笔记本+显示器</t>
+          <t>mac 笔记本+小米曲面屏显示器</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
+          <t>年假次年一月发放，每满一年+1 天</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>每个月有 4 次迟到补卡机会，早上 9.15 之前打卡不算迟到</t>
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
@@ -4891,14 +4921,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>新视云</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>地址：雨花台华为南研所</t>
+          <t>地址：雨花台</t>
         </is>
       </c>
     </row>
@@ -4971,70 +5001,74 @@
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>12:00-13:40</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
+          <t>看部门，业务部门偶尔加班，技术支持部门基本不加班</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>基础工资的 5%</t>
+          <t>基数 5k，比例 8%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>看部门盈利情况和个人绩效定</t>
+          <t>固定 13 薪</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>试用期 6 个月，100% 工资不打折。</t>
+          <t>3 年合同，试用期总共 6 个月，前三个月 8 折，后三个月全薪。</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>配 win 台式机+双屏</t>
+          <t>配笔记本+显示器</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
+          <t>5天年假+5天带薪病假（入职自动折算当年年假）</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>必须按时打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>满帮</t>
+          <t>华为</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>地址：万博科技园</t>
+          <t>地址：雨花台华为南研所</t>
         </is>
       </c>
     </row>
@@ -5106,218 +5140,218 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>用户交易中台技术部</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:40</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>不强制加班，但是分配的任务不加班基本完不成</t>
+          <t>好部门：124 加班 8:30，35 正常下班;差部门：天天 11 点以后。</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>基础工资的 5%</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>正常绩效水平1.5个月</t>
+          <t>看部门盈利情况和个人绩效定</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>六个月不打折</t>
+          <t>试用期 6 个月，100% 工资不打折。</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>网吧工位，thinkpad+显示器</t>
+          <t>配 win 台式机+双屏</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>满三个月才有年假</t>
+          <t>没签奋斗协议 5 天，一般不给休，第二年可折现，签协议放弃年假。</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>钉钉+闸机刷脸</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>卷，性价比极低，压力大</t>
-        </is>
-      </c>
+          <t>必须按时打卡</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>9:00-18:31</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1.5h</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>不强制， 周五基本不加。</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>全额8%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>上下半年绩效</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>奋斗日于2022年01月01日取消。</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>满帮</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>硅基智能</t>
+          <t>地址：万博科技园</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>地址：软件大道</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>用户交易中台技术部</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>不强制加班，但是分配的任务不加班基本完不成</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效水平1.5个月</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，thinkpad+显示器</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>满三个月才有年假</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>钉钉+闸机刷脸</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>卷，性价比极低，压力大</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>创新产品事业群</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9:00-18:30</t>
+          <t>9:00-18:31</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5327,49 +5361,49 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>没事到点走，部门氛围卷</t>
+          <t>不强制， 周五基本不加。</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>基数 5500，比例 10%</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
+          <t>全额8%</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>上下半年绩效</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>不打折</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>网吧工位</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
-        </is>
-      </c>
+          <t>六个月不打折</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>奋斗日于2022年01月01日取消。</t>
+        </is>
+      </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>江苏长江汇科技有限公司</t>
+          <t>硅基智能</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：软件大道</t>
         </is>
       </c>
     </row>
@@ -5443,17 +5477,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>技术部</t>
+          <t>创新产品事业群</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:30</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5463,39 +5497,31 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>按需加班</t>
+          <t>没事到点走，部门氛围卷</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>基数看个人，比例 5%</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>基数5000，按照绩效或多或少。</t>
-        </is>
-      </c>
+          <t>基数 5500，比例 10%</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>不打折</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>钉钉严格打卡</t>
-        </is>
-      </c>
+          <t>满一年才有正常年假，年假次年一月发放（不满一年打折）</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
@@ -5506,14 +5532,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>零字节</t>
+          <t>江苏长江汇科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -5585,15 +5611,19 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>技术部</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Go/Rust/JS/TS/产品/运营</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5603,61 +5633,57 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>按需加班</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>基数看个人，比例 5%</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>基数5000，按照绩效或多或少。</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>应届生八折，有工作经验的不打折。</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+          <t>无隔板工位，配台式电脑，自带电脑每个月有200补贴，持续24个月。</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>入职转正就享受年假</t>
+          <t>无</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>飞书打卡</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>节日红包、年度旅游（21年三亚一周）</t>
-        </is>
-      </c>
+          <t>钉钉严格打卡</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>思杰（Citrix）</t>
+          <t>零字节</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>地址：江宁九龙湖</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -5730,41 +5756,185 @@
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Go/Rust/JS/TS/产品/运营</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>9:30-18:30</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.5h</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>不加班</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>13薪，每年调薪一次。</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>应届生八折，有工作经验的不打折。</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>macbook pro（入职满三年电脑转赠给员工），每人配一个显示器（24-32寸）。</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>入职转正就享受年假</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>飞书打卡</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>节日红包、年度旅游（21年三亚一周）</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>思杰（Citrix）</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>地址：江宁九龙湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>09:00-17:00</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
         <is>
           <t>公司缴纳双边全额 12%</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
         <is>
           <t>升降桌+工作站（ 32G+1T ）+ MacBook + 双显示器 + 超大工位</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>年假 15 天，入司满 1 年增加 1 天，上限 20 天。</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -5773,8 +5943,8 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A26:B26"/>
@@ -5801,8 +5971,8 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A83:B83"/>
@@ -5819,17 +5989,19 @@
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A111:B111"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="31">
+  <tableParts count="32">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5861,6 +6033,7 @@
     <tablePart r:id="rId29"/>
     <tablePart r:id="rId30"/>
     <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/net_company_info.xlsx
+++ b/net_company_info.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="紫金山实验室" displayName="紫金山实验室" ref="A3:M4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="慧咨环球" displayName="慧咨环球" ref="A3:M4" headerRowCount="1">
   <autoFilter ref="A3:M4"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="平安科技" displayName="平安科技" ref="A40:M41" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A40:M41" headerRowCount="1">
   <autoFilter ref="A40:M41"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="明略科技" displayName="明略科技" ref="A44:M45" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="平安科技" displayName="平安科技" ref="A44:M45" headerRowCount="1">
   <autoFilter ref="A44:M45"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="南京云创大数据" displayName="南京云创大数据" ref="A48:M49" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="明略科技" displayName="明略科技" ref="A48:M49" headerRowCount="1">
   <autoFilter ref="A48:M49"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="中易智能" displayName="中易智能" ref="A52:M53" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="南京云创大数据" displayName="南京云创大数据" ref="A52:M53" headerRowCount="1">
   <autoFilter ref="A52:M53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="浩鲸科技" displayName="浩鲸科技" ref="A56:M57" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="中易智能" displayName="中易智能" ref="A56:M57" headerRowCount="1">
   <autoFilter ref="A56:M57"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A60:M61" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="浩鲸科技" displayName="浩鲸科技" ref="A60:M61" headerRowCount="1">
   <autoFilter ref="A60:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A64:M65" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="上海边界智能科技有限公司" displayName="上海边界智能科技有限公司" ref="A64:M65" headerRowCount="1">
   <autoFilter ref="A64:M65"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A68:M69" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="杭州云嘉云计算有限公司" displayName="杭州云嘉云计算有限公司" ref="A68:M69" headerRowCount="1">
   <autoFilter ref="A68:M69"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A72:M73" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="南京论之语网络技术有限公司" displayName="南京论之语网络技术有限公司" ref="A72:M73" headerRowCount="1">
   <autoFilter ref="A72:M73"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="安元科技" displayName="安元科技" ref="A76:M78" headerRowCount="1">
-  <autoFilter ref="A76:M78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="南京国电南思科技发展股份有限公司" displayName="南京国电南思科技发展股份有限公司" ref="A76:M77" headerRowCount="1">
+  <autoFilter ref="A76:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="新康众有限公司（江苏康众汽配）" displayName="新康众有限公司（江苏康众汽配）" ref="A7:M8" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="紫金山实验室" displayName="紫金山实验室" ref="A7:M8" headerRowCount="1">
   <autoFilter ref="A7:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -389,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A81:M82" headerRowCount="1">
-  <autoFilter ref="A81:M82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="安元科技" displayName="安元科技" ref="A80:M82" headerRowCount="1">
+  <autoFilter ref="A80:M82"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A85:M86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="南京伯索网络科技有限公司（PLASO）" displayName="南京伯索网络科技有限公司（PLASO）" ref="A85:M86" headerRowCount="1">
   <autoFilter ref="A85:M86"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A89:M90" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="南京力方（力方智充）" displayName="南京力方（力方智充）" ref="A89:M90" headerRowCount="1">
   <autoFilter ref="A89:M90"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="慧咨环球" displayName="慧咨环球" ref="A93:M94" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="云帐房网络科技有限公司" displayName="云帐房网络科技有限公司" ref="A93:M94" headerRowCount="1">
   <autoFilter ref="A93:M94"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="中国电子云" displayName="中国电子云" ref="A11:M12" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="新康众有限公司（江苏康众汽配）" displayName="新康众有限公司（江苏康众汽配）" ref="A11:M12" headerRowCount="1">
   <autoFilter ref="A11:M12"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A15:M16" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="中国电子云" displayName="中国电子云" ref="A15:M16" headerRowCount="1">
   <autoFilter ref="A15:M16"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -719,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A19:M21" headerRowCount="1">
-  <autoFilter ref="A19:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="宝马诚迈信息技术有限公司" displayName="宝马诚迈信息技术有限公司" ref="A19:M20" headerRowCount="1">
+  <autoFilter ref="A19:M20"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -741,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A24:M25" headerRowCount="1">
-  <autoFilter ref="A24:M25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="希音（SHEIN）" displayName="希音（SHEIN）" ref="A23:M25" headerRowCount="1">
+  <autoFilter ref="A23:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
     <tableColumn id="2" name="岗位"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A28:M29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Honeywell（霍尼韦尔）" displayName="Honeywell（霍尼韦尔）" ref="A28:M29" headerRowCount="1">
   <autoFilter ref="A28:M29"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A32:M33" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="奥特酷智能科技（南京）有限公司" displayName="奥特酷智能科技（南京）有限公司" ref="A32:M33" headerRowCount="1">
   <autoFilter ref="A32:M33"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="江苏通付盾区块链科技有限公司" displayName="江苏通付盾区块链科技有限公司" ref="A36:M37" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="鱼快创领（南京）" displayName="鱼快创领（南京）" ref="A36:M37" headerRowCount="1">
   <autoFilter ref="A36:M37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="部门"/>
@@ -1143,14 +1143,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紫金山实验室</t>
+          <t>慧咨环球</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -1224,81 +1224,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>未来网络</t>
+          <t>研发中心</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>网络/区块链/k8s</t>
+          <t>.NET/Python/前端</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>有效工作时间满8小时就行，随便什么时候上下班。2天办公室办公，3天在家办公</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>自己安排</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>基本上很少加班</t>
+          <t>没有加班</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>总包*0.7/12，比例缴纳12%</t>
+          <t>全额8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>总包*0.2</t>
+          <t>合同签年薪，13薪，有股权</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>试用期6月数；工资不打折</t>
+          <t>试用期6个月不打折</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
+          <t>升降桌，43寸4K显示器 * 2， Dell Precision 5570 工作站，64G 内存，2TSSD ，i9-12 处理器</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>按照国家法定节假日。</t>
+          <t>入职有10天，满3年后有15天，满10年后有20天</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
+          <t>联系VX: Just1n。 程序猿角度看公司：https://www.zhihu.com/question/493751767/answer/2282085657</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-06-25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>新康众有限公司（江苏康众汽配）</t>
+          <t>紫金山实验室</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市建邺区</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -1372,17 +1372,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>技术中心-供应链</t>
+          <t>未来网络</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>网络/区块链/k8s</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:00-18：00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1392,42 +1392,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>不强制加班，但是你没法早走，经常晚上开会</t>
+          <t>基本上很少加班</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>个人1500+公司1500</t>
+          <t>总包*0.7/12，比例缴纳12%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>hr说是3个月，实则0</t>
+          <t>总包*0.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>试用期3个月；不打折。</t>
+          <t>试用期6月数；工资不打折</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
+          <t>工位大小1.5平方格子，提供联想台式电脑。</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>入职满3年有三天，且没有陪产假这些。</t>
+          <t>按照国家法定节假日。</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
+          <t>严格打卡，使用楼下打卡机人脸识别打开。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
+          <t>课题1千万别去，套路太多，管理混乱，领导一言堂，而且是没经验的一言堂</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1439,14 +1439,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中国电子云</t>
+          <t>新康众有限公司（江苏康众汽配）</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>地址：雨花台区凯润大厦</t>
+          <t>地址：江苏省南京市建邺区</t>
         </is>
       </c>
     </row>
@@ -1520,81 +1520,81 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>存储开发部</t>
+          <t>技术中心-供应链</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>分布式存储开发工程师 C++/Go</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9:00-17:30，弹性1小时</t>
+          <t>9:00-18：00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
+          <t>不强制加班，但是你没法早走，经常晚上开会</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>全额12%</t>
+          <t>个人1500+公司1500</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14薪，看考核</t>
+          <t>hr说是3个月，实则0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折</t>
+          <t>试用期3个月；不打折。</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>网吧工位，电脑自己买，公司最多报销1w，分36个月返给你</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>转正后按照有年假</t>
+          <t>入职满3年有三天，且没有陪产假这些。</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>手机打卡，公司附近500m左右</t>
+          <t>钉钉打卡，领导会看监控以防你打卡了但人没到</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+          <t>公司没有任何福利，老板很抠门。从大领导到小领导都只会pua。直系领导每天啥都不干，只盯着你不让你闲着，要求24小时保持工作状态</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>宝马诚迈信息技术有限公司</t>
+          <t>中国电子云</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>地址：天隆寺金地威新</t>
+          <t>地址：雨花台区凯润大厦</t>
         </is>
       </c>
     </row>
@@ -1668,27 +1668,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>开发部</t>
+          <t>存储开发部</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>分布式存储开发工程师 C++/Go</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30，弹性1小时</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>124 加班，35 正常，项目忙时周六加班，可换调休</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1698,47 +1698,51 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>一个月</t>
+          <t>14薪，看考核</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3个月，不打折</t>
+          <t>试用期6个月，不打折</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10天起+12天病假</t>
+          <t>转正后按照有年假</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>刷脸闸机</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>手机打卡，公司附近500m左右</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>饭补500每月，孩子3岁内每年10天育儿假，三八节女同胞半天假，晚上加班到19点可报销晚餐25元标准。</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>希音（SHEIN）</t>
+          <t>宝马诚迈信息技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>地址：雨花台天溯科技园</t>
+          <t>地址：天隆寺金地威新</t>
         </is>
       </c>
     </row>
@@ -1812,296 +1816,292 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>开发部</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>研发</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00-20:00+</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
+          <t>不加班</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>基数全额8%</t>
+          <t>全额12%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>正常绩效2个月，C绩效1个月</t>
+          <t>一个月</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6个月，不打折</t>
+          <t>3个月，不打折</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
+          <t>Macbook Pro + 4K显示器 + 升降办公桌</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>转正后按年限给年假</t>
+          <t>10天起+12天病假</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
-        </is>
-      </c>
+          <t>刷脸闸机</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>研发效能与架构部</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>前端</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1h(表) 1.5h(里)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>全额 8%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>正常绩效水平 2 个月</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>六个月不打折</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>网吧工位，mbp m1 + 普通显示器</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
+          <t>希音（SHEIN）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Honeywell（霍尼韦尔）</t>
+          <t>地址：雨花台天溯科技园</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>地址：江宁大学城</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>研发</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>10:00-20:00+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>说是不强制加班，有事17:30以后就可以走，须保证每月平均工作时长超过8小时。但如果你连续加班天数少，会被上级说，安排的任务量也不允许你到点就跑。有的部门会统计加班时长，上报领导层，加班时间长更容易申请资源。我在的时候基本20:30以后下班。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数全额8%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>正常绩效2个月，C绩效1个月</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>6个月，不打折</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>网吧工位，听说过段时间换升降桌。前后端都是Mac，去年新款</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>转正后按年限给年假</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>企业微信定位打卡，离公司100米就可以打，每月3次补卡机会</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>越来越卷，部分部门和岗位有通宵情况，包括 值班、大促、上线等情况</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>研发效能与架构部</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>测试开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8:30-17:00</t>
+          <t>10:00-17:00 每月需满足8小时*工作日时长</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:30-13:00</t>
+          <t>1h(表) 1.5h(里)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
+          <t>不强制加班，卷王除外。平时加班，超过 20:00 餐补 50，超过 22:00 打车免费；周末加班，等小时换调休，精确到分钟。</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>工资全额的10%+年底补充年薪5%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>固定13薪，额外奖金1个月左右</t>
+          <t>正常绩效水平 2 个月</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
+          <t>六个月不打折</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
+          <t>网吧工位，mbp m1 + 普通显示器</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12天年假</t>
+          <t>五天年假，按入职日期折算（转正才发），按工作年龄满10年多5天。</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>不打卡</t>
+          <t>企微打卡，每月自助补 3 次，其余上级批。</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
+          <t>可卷可不卷，单身小姐姐贼多贼好看，内推：C太(微信：Ychaos)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>奥特酷智能科技（南京）有限公司</t>
+          <t>Honeywell（霍尼韦尔）</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>地址：雨花润和软件园</t>
+          <t>地址：江宁大学城</t>
         </is>
       </c>
     </row>
@@ -2175,37 +2175,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>工具开发部</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>开发工程师</t>
+          <t>测试开发工程师</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
+          <t>8:30-17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:30-12:30(实际1.5h)</t>
+          <t>11:30-13:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完，周末几乎无加班，周末加班调休</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>工资全额的12%</t>
+          <t>工资全额的10%+年底补充年薪5%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
+          <t>固定13薪，额外奖金1个月左右</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2215,41 +2215,41 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Dell Precision 3651/Thinkpad P14s</t>
+          <t>后端测试Dell,前端MAC 工位人均3,4平，空间很大，能放个床</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>有，按国家规定执行，随时都可以休</t>
+          <t>12天年假</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
+          <t>不打卡</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>工作节奏不快，员工福利基本上每个月都会发一些东西，其他也没什么了</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鱼快创领（南京）</t>
+          <t>奥特酷智能科技（南京）有限公司</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>地址：南京市九龙湖企业总部园</t>
+          <t>地址：雨花润和软件园</t>
         </is>
       </c>
     </row>
@@ -2323,81 +2323,81 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>硬件</t>
+          <t>工具开发部</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>开发工程师</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>9:00/10:00-18:00/19:00，弹性1个小时</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>11:30-12:30(实际1.5h)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>双休，平时加班不多，看部门</t>
+          <t>看情况，基本到点就走，除非自己判断deadline前无法做完</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>全额的12%</t>
+          <t>工资全额的12%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1个月，根据绩效浮动</t>
+          <t>承诺一个月，根据年底绩效考评向上调整，一般大于1个月</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6个月, 不打折</t>
+          <t>试用期6个月，不打折，转正目前没有答辩，也不要写申请</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>网吧工位，笔记本+显示器</t>
+          <t>Dell Precision 3651/Thinkpad P14s</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5天，一般会多送些</t>
+          <t>有，按国家规定执行，随时都可以休</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉手机打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>江苏通付盾区块链科技有限公司</t>
+          <t>鱼快创领（南京）</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市浦口区</t>
+          <t>地址：南京市九龙湖企业总部园</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>电力信息</t>
+          <t>硬件</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2481,17 +2481,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>驻场外包加班多 就一个餐补25 可以调休</t>
+          <t>双休，平时加班不多，看部门</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2501,30 +2501,34 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>看公司情况 一般有</t>
+          <t>1个月，根据绩效浮动</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>6个月, 不打折</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>网吧工位，外包是戴尔笔记本</t>
+          <t>网吧工位，笔记本+显示器</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>5天，一般会多送些</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>我在驻场外包是看客户方</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>钉钉打卡</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 福利不错，零食饮料都有</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -2534,14 +2538,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>平安科技</t>
+          <t>江苏通付盾区块链科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>地址：南京市雨花台区</t>
+          <t>地址：江苏省南京市浦口区</t>
         </is>
       </c>
     </row>
@@ -2615,77 +2619,77 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>平安科技（南京）</t>
+          <t>电力信息</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8:55-18:00</t>
+          <t>电力信息部是驻场外包 时间不定 加班多 本部的话9-18点</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
+          <t>驻场外包加班多 就一个餐补25 可以调休</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>基数工资全额8%</t>
+          <t>全额的12%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
+          <t>看公司情况 一般有</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>试用期3个月,工资不打折</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>三个月, 8折</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>网吧工位，外包是戴尔笔记本</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>过试用期开始有年假，年假比法定要更多</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>人脸打卡机</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
-        </is>
-      </c>
+          <t>我在驻场外包是看客户方</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>明略科技</t>
+          <t>平安科技</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>地址：云密城J</t>
+          <t>地址：南京市雨花台区</t>
         </is>
       </c>
     </row>
@@ -2759,17 +2763,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>营销智能</t>
+          <t>平安科技（南京）</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>8:55-18:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2779,57 +2783,57 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
+          <t>双休，不要求加班，但实际上每周工作日可能还是要加两三天，加班八点后餐补15，加班九点后打车费报销或报销25加油费</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>工资10%</t>
+          <t>基数工资全额8%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>说是3个月，不确信可不可靠</t>
+          <t>70%以上员工年终四个月及以上，亲测第一年达不到，之后达到并一定程度上更高</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>半年 不打折</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>5k左右的thinkpad 可以自带，没补贴。</t>
-        </is>
-      </c>
+          <t>试用期3个月,工资不打折</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>15天，按入职时间比例。</t>
+          <t>过试用期开始有年假，年假比法定要更多</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>刷工牌打卡</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>人脸打卡机</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>六险二金（商业医保+企业年金）。和各大酒店集团有协议价，出差基本上都能住万豪、希尔顿。各类实物福利礼包（小家电、食品、日用品等）每年会发三四次。平安科技南京主要承接平安集团各类系统的建设交付工作，公司整体还是比较偏传统不怎么互联网，业务上的复杂度和坑都挺大的，我们都称自己叫内包</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>南京云创大数据</t>
+          <t>明略科技</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市秦淮区</t>
+          <t>地址：云密城J</t>
         </is>
       </c>
     </row>
@@ -2903,81 +2907,77 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>营销智能</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>深度学习算法工程师</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8:45-17:45</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>基本不加，但老板有暗示要加。</t>
+          <t>双休,我在的时候不加班，后面不清楚有没有变化</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6000基数的8%</t>
+          <t>工资10%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>说是3个月，不确信可不可靠</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>三个月, 8折</t>
+          <t>半年 不打折</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
+          <t>5k左右的thinkpad 可以自带，没补贴。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>具体不清楚，但有。</t>
+          <t>15天，按入职时间比例。</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
-        </is>
-      </c>
+          <t>刷工牌打卡</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-03-03</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>中易智能</t>
+          <t>南京云创大数据</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市秦淮区</t>
         </is>
       </c>
     </row>
@@ -3051,32 +3051,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>小公司不分部门</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>python开发</t>
+          <t>深度学习算法工程师</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>8:45-17:45</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h，提供盒饭，菜基本都带点辣，到点会有广播叫醒你。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>不加班, 但工作量大。</t>
+          <t>基本不加，但老板有暗示要加。</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>具体基数忘了, 公司交一千多。</t>
+          <t>6000基数的8%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3086,46 +3086,46 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>三个月, 八折。</t>
+          <t>三个月, 8折</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>网吧工位</t>
+          <t>网吧工位，老i5+8g+机械盘电脑，二手键鼠</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>无, 所有节假日都少放几天。</t>
+          <t>具体不清楚，但有。</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>指纹打卡</t>
+          <t>企业微信上下班打卡，日报周报，不写扣工资。</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
+          <t>老板说话很浮夸，公司没啥技术主要靠销售忽悠。</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>浩鲸科技</t>
+          <t>中易智能</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>地址：江宁正方中路</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3199,81 +3199,81 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
+          <t>小公司不分部门</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>前端</t>
+          <t>python开发</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
+          <t>不加班, 但工作量大。</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>记不清</t>
+          <t>具体基数忘了, 公司交一千多。</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>不清楚</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3个月</t>
+          <t>三个月, 八折。</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>自带</t>
+          <t>网吧工位</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>无, 所有节假日都少放几天。</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>严格打卡，钉钉。</t>
+          <t>指纹打卡</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
+          <t>坑爹小公司, 劳动合同扣着不给你, 干三天辞职不给工资, 你还没证据告他, 对外以蒙特梭利这个名字招人。</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>上海边界智能科技有限公司</t>
+          <t>浩鲸科技</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市鼓楼区</t>
+          <t>地址：江宁正方中路</t>
         </is>
       </c>
     </row>
@@ -3347,62 +3347,62 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>南京研发中心二部</t>
+          <t>数字交通还是啥的，记不清了，在食堂那栋楼。</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>后端开发工程师</t>
+          <t>前端</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9:30-19:00</t>
+          <t>9:00上班，124到晚上8点，35到晚上5：30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>不强制, 但工作量大。</t>
+          <t>经常出差，经常通宵，管理混乱，一个文案和交互能给你改个十几遍，bug改完立刻上线。</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7000，比例 12%。</t>
+          <t>记不清</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>根据考核情况</t>
+          <t>不清楚</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3个月，9折。</t>
+          <t>3个月</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>网吧工位, 配华为 matebook 和显示器。</t>
+          <t>自带</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>根据工作年限, 第一年5天。</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>钉钉</t>
+          <t>严格打卡，钉钉。</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
+          <t>研发混乱，毫无管理，全是无效加班。没有所谓的下班时间。我在的那段时间天天晚上加班到凌晨，周末也是如此。同部门的同事基本都走完了。</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3414,14 +3414,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>杭州云嘉云计算有限公司</t>
+          <t>上海边界智能科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
+          <t>地址：江苏省南京市鼓楼区</t>
         </is>
       </c>
     </row>
@@ -3495,81 +3495,81 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>研发部</t>
+          <t>南京研发中心二部</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>后端开发工程师</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:30-19:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11:30-14:00</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看项目组，有些组每周会有固定1-2天加班。</t>
+          <t>不强制, 但工作量大。</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>工资*80%*8%</t>
+          <t>7000，比例 12%。</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>一个月左右或者没有一个月</t>
+          <t>根据考核情况</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>三个月八折，可以跟人事谈试用期不打折。</t>
+          <t>3个月，9折。</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
+          <t>网吧工位, 配华为 matebook 和显示器。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>根据工作年限, 第一年5天。</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>钉钉打卡</t>
+          <t>钉钉</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>氛围不行，不适合长期发展。</t>
+          <t>试用期考核严, 转正率低, 大概率被裁, 除非你特别能卷。</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>南京论之语网络技术有限公司</t>
+          <t>杭州云嘉云计算有限公司</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
+          <t>地址：江苏省南京市软件大道118号B1栋8楼803室</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>研发一部</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3658,47 +3658,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-14:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>995（强制每周工时47.5h）</t>
+          <t>看项目组，有些组每周会有固定1-2天加班。</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>基数8%</t>
+          <t>工资*80%*8%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>根据公司业绩提供</t>
+          <t>一个月左右或者没有一个月</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>试用期3个月，打8折。</t>
+          <t>三个月八折，可以跟人事谈试用期不打折。</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>diy台式机</t>
+          <t>公司电脑贼难用，自己带电脑，每个月190补贴。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>有，根据工龄计算</t>
+          <t>5天</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月有三次补打卡。</t>
+          <t>钉钉打卡</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>项目组开发周期很紧，任务量偏多</t>
+          <t>氛围不行，不适合长期发展。</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -3710,14 +3710,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>南京国电南思科技发展股份有限公司</t>
+          <t>南京论之语网络技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市江宁区</t>
+          <t>地址：江苏省南京市雨花台区小行路6号创e梦工场3号楼</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>后端开发</t>
+          <t>研发一部</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3806,47 +3806,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12:00-13:00(实际1.5h)</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
+          <t>995（强制每周工时47.5h）</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>基数底薪，比例 10%。</t>
+          <t>基数8%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>两个月基础工资，优秀员工三个月基础工资</t>
+          <t>根据公司业绩提供</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>三个月八折</t>
+          <t>试用期3个月，打8折。</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>自己带电脑，每个月150补贴</t>
+          <t>diy台式机</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5天，春节休完</t>
+          <t>有，根据工龄计算</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>企业微信打卡，基本不按照打卡考核绩效</t>
+          <t>钉钉打卡，每个月有三次补打卡。</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>氛围很轻松，同事反对内卷</t>
+          <t>项目组开发周期很紧，任务量偏多</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -3858,14 +3858,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>安元科技</t>
+          <t>南京国电南思科技发展股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>地址：江北研创园</t>
+          <t>地址：江苏省南京市江宁区</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3939,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>中间件架构</t>
+          <t>后端开发</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9:00-17:30</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3959,264 +3959,276 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>看情况，基本到点就走，除非有上线</t>
+          <t>124加班到8点（晚上5.30可以出去吃饭，7点钟回公司就行，实际加班只加1小时），35 正常；正常情况下，项目不急，到点就走，急的话看情况自己加班不加班</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
+          <t>基数底薪，比例 10%。</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>两个月基础工资，优秀员工三个月基础工资</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>试用期3个月；打8折</t>
+          <t>三个月八折</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>dell台式机</t>
+          <t>自己带电脑，每个月150补贴</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>有，过年一次性强制休完</t>
+          <t>5天，春节休完</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
+          <t>企业微信打卡，基本不按照打卡考核绩效</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>工作还算轻松，节奏偏慢~</t>
+          <t>氛围很轻松，同事反对内卷</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>启业云-平台研发</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>前端开发工程师</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>9:00-17:30</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>12:00-13:00(实际1.5h)</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>看情况，基本到点就走，除非有上线</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>试用期3个月；打8折，可谈。</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>dell台式机</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>有，过年一次性强制休完</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>指纹打卡，每个月有三次提忘打卡</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>工作还算轻松，节奏偏慢~</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
+          <t>安元科技</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>南京伯索网络科技有限公司（PLASO）</t>
+          <t>地址：江北研创园</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市</t>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>岗位</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上班时间</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>午休时长</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>加班情况</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>年终奖</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>试用期</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>工位电脑情况</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>打卡情况</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>其他备注</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>更新时间</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>部门</t>
+          <t>启业云-平台研发</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>岗位</t>
+          <t>中间件架构</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上班时间</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>午休时长</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>加班情况</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>年终奖</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>试用期</t>
+          <t>试用期3个月；打8折</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>工位电脑情况</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>打卡情况</t>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>其他备注</t>
+          <t>工作还算轻松，节奏偏慢~</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>更新时间</t>
+          <t>2022-02-10</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>启业云-平台研发</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>前端开发工程师</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9:00-18:00</t>
+          <t>9:00-17:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1h</t>
+          <t>12:00-13:00(实际1.5h)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>124加班，35 正常；大小周</t>
+          <t>看情况，基本到点就走，除非有上线</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>基数底薪，比例 8%。</t>
+          <t>基数6K 9K 12K不等按级别来，比例 8%。</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>一般无。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3个月8折。</t>
+          <t>试用期3个月；打8折，可谈。</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>网吧工位。</t>
+          <t>dell台式机</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>入职一年后有，多一年加一天</t>
+          <t>有，过年一次性强制休完</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>企业微信打卡，每月有3次迟到机会。</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>指纹打卡，每个月有三次提忘打卡</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>工作还算轻松，节奏偏慢~</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>南京力方（力方智充）</t>
+          <t>南京伯索网络科技有限公司（PLASO）</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>地址：铁心桥软件谷</t>
+          <t>地址：江苏省南京市</t>
         </is>
       </c>
     </row>
@@ -4288,79 +4300,71 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9:10-18:00</t>
+          <t>9:00-18:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.5h</t>
+          <t>1h</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
+          <t>124加班，35 正常；大小周</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>全额 8%</t>
+          <t>基数底薪，比例 8%。</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>一般无。</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>三个月</t>
+          <t>3个月8折。</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>显示器，不一定有。</t>
+          <t>网吧工位。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>满一年才有正常年假，不满一年一律没有。</t>
+          <t>入职一年后有，多一年加一天</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>必须打卡，不然扣钱。</t>
+          <t>企业微信打卡，每月有3次迟到机会。</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>云帐房网络科技有限公司</t>
+          <t>南京力方（力方智充）</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
+          <t>地址：铁心桥软件谷</t>
         </is>
       </c>
     </row>
@@ -4434,17 +4438,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>中台</t>
+          <t>研发部</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9:30-18:30</t>
+          <t>9:10-18:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4454,61 +4458,57 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>一个月平均加班天数3到4天</t>
+          <t>1、2、4加班至九点，领导画饼（带你实现财富自由）。</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>总薪资 * 0.8 * 0.6 * 10%</t>
+          <t>全额 8%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>去年只发了半个月</t>
+          <t>无</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>三个月，薪资打八折</t>
+          <t>三个月</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
+          <t>显示器，不一定有。</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>五天年假，按入职日期折算</t>
+          <t>满一年才有正常年假，不满一年一律没有。</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>钉钉打卡，每个月五次补卡机会</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
-        </is>
-      </c>
+          <t>必须打卡，不然扣钱。</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-26</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>慧咨环球</t>
+          <t>云帐房网络科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>地址：江苏省南京市白下区（年中搬到河西）</t>
+          <t>地址：江苏省南京市雨花台区绿地之窗（今年6月份搬到花神庙）</t>
         </is>
       </c>
     </row>
@@ -4582,62 +4582,62 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>研发中心</t>
+          <t>中台</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>.NET/Python etc.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>自己安排，满8小时工时就好。</t>
+          <t>9:30-18:30</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>自己安排</t>
+          <t>1.5h</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>不加班</t>
+          <t>一个月平均加班天数3到4天</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>全额8%</t>
+          <t>总薪资 * 0.8 * 0.6 * 10%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13薪，每年调薪一次。</t>
+          <t>去年只发了半个月</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>不打折</t>
+          <t>三个月，薪资打八折</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>一个高配台式机或者一个高配Dell工作站笔记本，两个40寸显示器。</t>
+          <t>网吧工位，一个台式主机，两个24寸1080P显示器</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>10~20天</t>
+          <t>五天年假，按入职日期折算</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>完全不打卡</t>
+          <t>钉钉打卡，每个月五次补卡机会</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>内推vx: Just1n，混和办公：3+2， 3天居家办公，2天办公室办公。</t>
+          <t>跟着业务走的，忙的话加班，不忙摸鱼，不强制加班。晚上加班白给，周末加班调休</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5945,8 +5945,8 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
@@ -5973,8 +5973,8 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A87:B87"/>
